--- a/Graphs and tables - Progressive Experiment.xlsx
+++ b/Graphs and tables - Progressive Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Dropbox\Opleiding\Technische Informatica\Y3\RP\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A18D3BB-0C16-45CB-9593-A0133D620760}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D038310-7ACC-4E27-9635-414552C0F53C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8320F48F-49CD-4592-AFEA-655EFDBFA293}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8320F48F-49CD-4592-AFEA-655EFDBFA293}"/>
   </bookViews>
   <sheets>
     <sheet name="Average Grade" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Overlapping waypoints" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Average Grade'!$A$2:$B$37</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Average Grade'!$A$2:$B$35</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">Corridors!$A$2:$B$17</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Overlapping waypoints'!$A$2:$B$62</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">Chokepoints!$A$2:$B$30</definedName>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>Agents</t>
   </si>
@@ -173,16 +173,19 @@
     <t>The values for each algorithm are the number of maps the algorithm was able to solve within the timeout</t>
   </si>
   <si>
-    <t>BCP</t>
+    <t>BCP-MAPFW</t>
   </si>
   <si>
-    <t>M*</t>
+    <t>BCP-MAPFW-MAPFW</t>
   </si>
   <si>
-    <t>MLA*</t>
+    <t>WM*</t>
   </si>
   <si>
-    <t>CBS</t>
+    <t>EMLA</t>
+  </si>
+  <si>
+    <t>CBSW</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Average Grade'!$B$3:$B$37</c:f>
+              <c:f>'Average Grade'!$B$3:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
@@ -481,7 +484,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E66C-4DFE-ADCD-FC55F65DC798}"/>
+              <c16:uniqueId val="{00000000-FE20-4675-A12F-61DA1FF6A6AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -494,7 +497,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BCP</c:v>
+                  <c:v>BCP-MAPFW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -527,10 +530,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Average Grade'!$C$3:$C$37</c:f>
+              <c:f>'Average Grade'!$C$3:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
@@ -603,7 +606,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E66C-4DFE-ADCD-FC55F65DC798}"/>
+              <c16:uniqueId val="{00000001-FE20-4675-A12F-61DA1FF6A6AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -616,7 +619,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M*</c:v>
+                  <c:v>CBSW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -624,7 +627,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -639,7 +642,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -648,10 +651,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Average Grade'!$D$3:$D$37</c:f>
+              <c:f>'Average Grade'!$D$3:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
@@ -662,60 +665,36 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -724,7 +703,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E66C-4DFE-ADCD-FC55F65DC798}"/>
+              <c16:uniqueId val="{00000002-FE20-4675-A12F-61DA1FF6A6AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -737,7 +716,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MLA*</c:v>
+                  <c:v>WM*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -767,10 +746,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Average Grade'!$E$3:$E$37</c:f>
+              <c:f>'Average Grade'!$E$3:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
@@ -778,93 +757,63 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -873,7 +822,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E66C-4DFE-ADCD-FC55F65DC798}"/>
+              <c16:uniqueId val="{00000003-FE20-4675-A12F-61DA1FF6A6AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -886,7 +835,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CBS</c:v>
+                  <c:v>EMLA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -901,7 +850,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
               <a:noFill/>
@@ -916,10 +865,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Average Grade'!$F$3:$F$37</c:f>
+              <c:f>'Average Grade'!$F$3:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
@@ -927,39 +876,93 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -968,7 +971,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E66C-4DFE-ADCD-FC55F65DC798}"/>
+              <c16:uniqueId val="{00000004-FE20-4675-A12F-61DA1FF6A6AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1426,7 +1429,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89C8-4559-8C9B-C638D5512ACB}"/>
+              <c16:uniqueId val="{00000000-3444-40F1-96B5-6EEB9011DE9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1439,7 +1442,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BCP</c:v>
+                  <c:v>BCP-MAPFW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1503,7 +1506,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-89C8-4559-8C9B-C638D5512ACB}"/>
+              <c16:uniqueId val="{00000001-3444-40F1-96B5-6EEB9011DE9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1516,7 +1519,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M*</c:v>
+                  <c:v>CBSW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1524,7 +1527,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1539,7 +1542,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1556,27 +1559,21 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1585,7 +1582,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-89C8-4559-8C9B-C638D5512ACB}"/>
+              <c16:uniqueId val="{00000002-3444-40F1-96B5-6EEB9011DE9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1598,7 +1595,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MLA*</c:v>
+                  <c:v>WM*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1633,84 +1630,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1719,7 +1662,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-89C8-4559-8C9B-C638D5512ACB}"/>
+              <c16:uniqueId val="{00000003-3444-40F1-96B5-6EEB9011DE9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1732,7 +1675,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CBS</c:v>
+                  <c:v>EMLA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1747,7 +1690,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
               <a:noFill/>
@@ -1767,24 +1710,84 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1793,7 +1796,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-89C8-4559-8C9B-C638D5512ACB}"/>
+              <c16:uniqueId val="{00000004-3444-40F1-96B5-6EEB9011DE9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2257,7 +2260,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E7E6-4296-925D-49EB2AF150AC}"/>
+              <c16:uniqueId val="{00000000-6F24-4F87-B6D3-E09BF79FF339}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2270,7 +2273,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BCP</c:v>
+                  <c:v>BCP-MAPFW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2337,7 +2340,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E7E6-4296-925D-49EB2AF150AC}"/>
+              <c16:uniqueId val="{00000001-6F24-4F87-B6D3-E09BF79FF339}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2350,7 +2353,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M*</c:v>
+                  <c:v>CBSW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2358,7 +2361,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2373,7 +2376,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2390,36 +2393,24 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2428,7 +2419,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E7E6-4296-925D-49EB2AF150AC}"/>
+              <c16:uniqueId val="{00000002-6F24-4F87-B6D3-E09BF79FF339}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2441,7 +2432,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MLA*</c:v>
+                  <c:v>WM*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2482,39 +2473,33 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2523,7 +2508,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E7E6-4296-925D-49EB2AF150AC}"/>
+              <c16:uniqueId val="{00000003-6F24-4F87-B6D3-E09BF79FF339}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2536,7 +2521,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CBS</c:v>
+                  <c:v>EMLA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2551,7 +2536,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
               <a:noFill/>
@@ -2574,24 +2559,42 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2600,7 +2603,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E7E6-4296-925D-49EB2AF150AC}"/>
+              <c16:uniqueId val="{00000004-6F24-4F87-B6D3-E09BF79FF339}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3089,7 +3092,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BCP</c:v>
+                  <c:v>BCP-MAPFW-MAPFW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3217,7 +3220,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M*</c:v>
+                  <c:v>CBSW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3225,7 +3228,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3240,7 +3243,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3263,48 +3266,27 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3326,7 +3308,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MLA*</c:v>
+                  <c:v>WM*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3373,168 +3355,45 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3556,7 +3415,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CBS</c:v>
+                  <c:v>EMLA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3571,7 +3430,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
               <a:noFill/>
@@ -3600,27 +3459,171 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="40">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6194,23 +6197,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>490540</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>52391</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB43398C-DE37-459E-99F3-828C61E5F622}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB340CF6-BFCF-4EEA-BE3B-F322C617C2B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6237,23 +6240,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>557776</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>52391</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0418F03-71AE-4761-859C-061D6EC98752}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045BC43F-5601-49AC-9C12-0281066CBF3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6282,21 +6285,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>490540</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>52391</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FCCFB8-23B5-4714-AECD-0DD9972083E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86084256-3687-47FE-B2A0-EFCA0FDE8AB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6323,16 +6326,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>271460</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23809</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6362,14 +6365,14 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="33" xr16:uid="{3272A711-3FA7-441E-89B4-6302EE6BBFF5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="4">
+  <queryTableRefresh nextId="8" unboundColumnsRight="4">
     <queryTableFields count="6">
       <queryTableField id="1" name="Agents" tableColumnId="1"/>
       <queryTableField id="2" name="Succeeded" tableColumnId="2"/>
       <queryTableField id="3" dataBound="0" tableColumnId="3"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
       <queryTableField id="4" dataBound="0" tableColumnId="4"/>
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
-      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -6377,14 +6380,14 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="1" xr16:uid="{B38A9090-E5DB-4AE7-86DC-F46F37803EAA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="4">
+  <queryTableRefresh nextId="8" unboundColumnsRight="4">
     <queryTableFields count="6">
       <queryTableField id="1" name="Agents" tableColumnId="1"/>
       <queryTableField id="2" name="Succeeded" tableColumnId="2"/>
       <queryTableField id="3" dataBound="0" tableColumnId="3"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
       <queryTableField id="4" dataBound="0" tableColumnId="4"/>
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
-      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -6392,14 +6395,14 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="34" xr16:uid="{E55950AE-55F2-4CFF-8702-44A7A0842043}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="4">
+  <queryTableRefresh nextId="8" unboundColumnsRight="4">
     <queryTableFields count="6">
       <queryTableField id="1" name="Agents" tableColumnId="1"/>
       <queryTableField id="2" name="Succeeded" tableColumnId="2"/>
       <queryTableField id="3" dataBound="0" tableColumnId="3"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
       <queryTableField id="4" dataBound="0" tableColumnId="4"/>
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
-      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -6407,29 +6410,29 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="35" xr16:uid="{1C86E859-80A6-47E3-A9C4-AB264FFB5FB8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7" unboundColumnsRight="4">
+  <queryTableRefresh nextId="10" unboundColumnsRight="4">
     <queryTableFields count="6">
       <queryTableField id="1" name="Agents" tableColumnId="1"/>
       <queryTableField id="2" name="Succeeded" tableColumnId="2"/>
       <queryTableField id="3" dataBound="0" tableColumnId="3"/>
-      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="8"/>
       <queryTableField id="5" dataBound="0" tableColumnId="5"/>
-      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1647D607-44F5-4B9F-A27A-470C0E0FB4B9}" name="Raw_data___A_star" displayName="Raw_data___A_star" ref="A2:F37" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="Title">
-  <autoFilter ref="A2:F37" xr:uid="{861E04BC-F99D-452A-9611-5ABC321F9D6F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1647D607-44F5-4B9F-A27A-470C0E0FB4B9}" name="Raw_data___A_star" displayName="Raw_data___A_star" ref="A2:F35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="Title">
+  <autoFilter ref="A2:F35" xr:uid="{861E04BC-F99D-452A-9611-5ABC321F9D6F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3FA7444B-28B0-4AFE-BF37-8F5F6F2C1E08}" uniqueName="1" name="Agents" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{EC849E5A-EB3A-43BE-BBB8-E65A13E30E31}" uniqueName="2" name="A* + OD + ID" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{046F3B3C-6614-42C1-824F-37228AF6586E}" uniqueName="3" name="BCP" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C860D84D-CA6D-4D98-87B9-DD9F227FF3F6}" uniqueName="4" name="M*" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{09004C91-988D-4BED-810B-A6D0BB5B939B}" uniqueName="5" name="MLA*" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{BAF6C332-92DA-44C5-ACE8-BEDF9D8BACD8}" uniqueName="6" name="CBS" queryTableFieldId="6"/>
+    <tableColumn id="3" xr3:uid="{046F3B3C-6614-42C1-824F-37228AF6586E}" uniqueName="3" name="BCP-MAPFW" queryTableFieldId="3"/>
+    <tableColumn id="7" xr3:uid="{EB134771-C665-4C35-9737-923F7C5889ED}" uniqueName="7" name="CBSW" queryTableFieldId="7"/>
+    <tableColumn id="4" xr3:uid="{C860D84D-CA6D-4D98-87B9-DD9F227FF3F6}" uniqueName="4" name="WM*" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{09004C91-988D-4BED-810B-A6D0BB5B939B}" uniqueName="5" name="EMLA" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6441,10 +6444,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8CDE545D-CAF6-4305-B7BD-01478E256DA7}" uniqueName="1" name="Agents" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{1BFAF336-38D4-4CC2-B496-F08F702701E4}" uniqueName="2" name="A* + OD + ID" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{708E524F-DF51-405F-AC6C-126176ABCDB0}" uniqueName="3" name="BCP" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{4F87341F-7B74-46A6-8AC3-9BF1A28BA218}" uniqueName="4" name="M*" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{19AACE57-2A84-42C6-A136-D7EC70401C40}" uniqueName="5" name="MLA*" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{EAF2177E-69A7-4554-9646-7290B8E1466C}" uniqueName="6" name="CBS" queryTableFieldId="6"/>
+    <tableColumn id="3" xr3:uid="{708E524F-DF51-405F-AC6C-126176ABCDB0}" uniqueName="3" name="BCP-MAPFW" queryTableFieldId="3"/>
+    <tableColumn id="7" xr3:uid="{0A20694D-0CE4-4583-A7D8-6709ABF92681}" uniqueName="7" name="CBSW" queryTableFieldId="7"/>
+    <tableColumn id="4" xr3:uid="{4F87341F-7B74-46A6-8AC3-9BF1A28BA218}" uniqueName="4" name="WM*" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{19AACE57-2A84-42C6-A136-D7EC70401C40}" uniqueName="5" name="EMLA" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6456,10 +6459,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2273EFA9-3A3A-4358-9B50-17742F844B78}" uniqueName="1" name="Agents" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{9BFF5962-D7C6-4AFB-AE69-5754A36BDB20}" uniqueName="2" name="A* + OD + ID" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{C8F3C87A-9FB8-4480-BA87-4FA6A1823A6C}" uniqueName="3" name="BCP" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{31DADA13-7F57-4708-9FFF-CB06D3A4D12B}" uniqueName="4" name="M*" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{101D7BBF-0B85-466C-9B0C-C2AF0A299EDB}" uniqueName="5" name="MLA*" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{536BCFF9-4EB4-41FE-8FC2-937B7E179AC3}" uniqueName="6" name="CBS" queryTableFieldId="6"/>
+    <tableColumn id="3" xr3:uid="{C8F3C87A-9FB8-4480-BA87-4FA6A1823A6C}" uniqueName="3" name="BCP-MAPFW" queryTableFieldId="3"/>
+    <tableColumn id="7" xr3:uid="{6CD7FC0F-6AC6-4597-A277-DC224A108435}" uniqueName="7" name="CBSW" queryTableFieldId="7"/>
+    <tableColumn id="4" xr3:uid="{31DADA13-7F57-4708-9FFF-CB06D3A4D12B}" uniqueName="4" name="WM*" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{101D7BBF-0B85-466C-9B0C-C2AF0A299EDB}" uniqueName="5" name="EMLA" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6471,10 +6474,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{05AC7780-2F4E-4435-8006-CC3521E598F1}" uniqueName="1" name="Agents" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{2516629F-9730-4096-9FDB-2F249C87CC3C}" uniqueName="2" name="A* + OD + ID" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{9FB45F27-ABDC-4768-8667-5F093DDFF794}" uniqueName="3" name="BCP" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{DE8629E2-E27C-4BE7-90F5-52905D08BAE2}" uniqueName="4" name="M*" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{7DB94F58-D74C-4004-A843-A8612ADABB7C}" uniqueName="5" name="MLA*" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{574D5242-3DCB-4E01-A028-1905EB1EF132}" uniqueName="6" name="CBS" queryTableFieldId="6"/>
+    <tableColumn id="3" xr3:uid="{9FB45F27-ABDC-4768-8667-5F093DDFF794}" uniqueName="3" name="BCP-MAPFW-MAPFW" queryTableFieldId="3"/>
+    <tableColumn id="7" xr3:uid="{BA5C65F7-7B48-470A-8FB0-1D279331DC5C}" uniqueName="7" name="CBSW" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{C0FFEE29-204E-42B4-BAB1-54B9BD31AC2E}" uniqueName="8" name="WM*" queryTableFieldId="9"/>
+    <tableColumn id="5" xr3:uid="{7DB94F58-D74C-4004-A843-A8612ADABB7C}" uniqueName="5" name="EMLA" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6777,26 +6780,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72987EEA-6D31-4DA3-B090-4C71827228D0}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -6823,9 +6826,9 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -6894,10 +6897,10 @@
         <v>49</v>
       </c>
       <c r="E6">
+        <v>49</v>
+      </c>
+      <c r="F6">
         <v>48</v>
-      </c>
-      <c r="F6">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -6911,13 +6914,13 @@
         <v>50</v>
       </c>
       <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7">
         <v>50</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>49</v>
-      </c>
-      <c r="F7">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -6931,13 +6934,13 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>49</v>
       </c>
       <c r="F8">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -6951,13 +6954,13 @@
         <v>50</v>
       </c>
       <c r="D9">
+        <v>46</v>
+      </c>
+      <c r="E9">
         <v>50</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>48</v>
-      </c>
-      <c r="F9">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -6971,13 +6974,13 @@
         <v>50</v>
       </c>
       <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
         <v>48</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>42</v>
-      </c>
-      <c r="F10">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -6991,13 +6994,13 @@
         <v>49</v>
       </c>
       <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
         <v>47</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>43</v>
-      </c>
-      <c r="F11">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -7011,13 +7014,13 @@
         <v>49</v>
       </c>
       <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
         <v>43</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>45</v>
-      </c>
-      <c r="F12">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -7031,13 +7034,13 @@
         <v>49</v>
       </c>
       <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
         <v>42</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>40</v>
-      </c>
-      <c r="F13">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -7051,13 +7054,13 @@
         <v>49</v>
       </c>
       <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
         <v>42</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>41</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -7071,13 +7074,13 @@
         <v>42</v>
       </c>
       <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
         <v>30</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>37</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -7088,13 +7091,13 @@
         <v>33</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>27</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>31</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7105,13 +7108,13 @@
         <v>34</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>27</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>35</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7121,10 +7124,10 @@
       <c r="C18">
         <v>27</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>21</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>27</v>
       </c>
     </row>
@@ -7135,10 +7138,10 @@
       <c r="C19">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>18</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>23</v>
       </c>
     </row>
@@ -7149,10 +7152,10 @@
       <c r="C20">
         <v>14</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>13</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>22</v>
       </c>
     </row>
@@ -7163,10 +7166,10 @@
       <c r="C21">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>7</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>24</v>
       </c>
     </row>
@@ -7177,10 +7180,10 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>21</v>
       </c>
     </row>
@@ -7191,10 +7194,10 @@
       <c r="C23">
         <v>6</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>20</v>
       </c>
     </row>
@@ -7205,10 +7208,10 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>17</v>
       </c>
     </row>
@@ -7219,10 +7222,10 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>11</v>
       </c>
     </row>
@@ -7230,7 +7233,7 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>15</v>
       </c>
     </row>
@@ -7238,7 +7241,7 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>9</v>
       </c>
     </row>
@@ -7246,7 +7249,7 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>5</v>
       </c>
     </row>
@@ -7254,7 +7257,7 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>4</v>
       </c>
     </row>
@@ -7262,7 +7265,7 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>5</v>
       </c>
     </row>
@@ -7270,7 +7273,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7</v>
       </c>
     </row>
@@ -7278,47 +7281,37 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:S1"/>
+    <mergeCell ref="E1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7334,7 +7327,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7347,10 +7340,9 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -7377,7 +7369,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -7400,10 +7392,10 @@
         <v>50</v>
       </c>
       <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
         <v>46</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -7417,13 +7409,13 @@
         <v>44</v>
       </c>
       <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="E5">
         <v>48</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>39</v>
-      </c>
-      <c r="F5">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -7437,13 +7429,13 @@
         <v>28</v>
       </c>
       <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
         <v>43</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>37</v>
-      </c>
-      <c r="F6">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -7457,13 +7449,13 @@
         <v>10</v>
       </c>
       <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
         <v>37</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -7477,13 +7469,13 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>29</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -7494,13 +7486,13 @@
         <v>2</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>34</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -7511,23 +7503,23 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>23</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>28</v>
       </c>
     </row>
@@ -7535,10 +7527,10 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>28</v>
       </c>
     </row>
@@ -7546,7 +7538,7 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>21</v>
       </c>
     </row>
@@ -7554,7 +7546,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>22</v>
       </c>
     </row>
@@ -7562,7 +7554,7 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>23</v>
       </c>
     </row>
@@ -7570,125 +7562,125 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:S1"/>
+    <mergeCell ref="E1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7703,7 +7695,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D15"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7716,10 +7708,9 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -7746,7 +7737,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -7786,13 +7777,13 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>49</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -7806,13 +7797,13 @@
         <v>46</v>
       </c>
       <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
         <v>47</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>48</v>
-      </c>
-      <c r="F6">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -7826,13 +7817,13 @@
         <v>25</v>
       </c>
       <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
         <v>39</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -7846,13 +7837,13 @@
         <v>17</v>
       </c>
       <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
         <v>38</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>39</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -7866,13 +7857,13 @@
         <v>9</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>24</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -7886,13 +7877,13 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>26</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -7903,23 +7894,23 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>18</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>15</v>
       </c>
     </row>
@@ -7927,10 +7918,10 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>16</v>
       </c>
     </row>
@@ -7938,10 +7929,10 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6</v>
       </c>
     </row>
@@ -7949,10 +7940,10 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5</v>
       </c>
     </row>
@@ -7960,21 +7951,21 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:S1"/>
+    <mergeCell ref="E1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7986,27 +7977,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D93B1A-B638-47AC-A2A7-3B5054993682}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -8020,9 +8007,8 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8030,10 +8016,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -8042,7 +8028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8062,7 +8048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8082,7 +8068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8102,7 +8088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8113,16 +8099,16 @@
         <v>50</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>50</v>
       </c>
       <c r="F7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8133,16 +8119,16 @@
         <v>50</v>
       </c>
       <c r="D8">
+        <v>38</v>
+      </c>
+      <c r="E8">
         <v>49</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>50</v>
       </c>
-      <c r="F8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8153,16 +8139,16 @@
         <v>48</v>
       </c>
       <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
         <v>45</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>50</v>
       </c>
-      <c r="F9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8173,16 +8159,16 @@
         <v>45</v>
       </c>
       <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
         <v>39</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>50</v>
       </c>
-      <c r="F10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8193,16 +8179,16 @@
         <v>45</v>
       </c>
       <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
         <v>34</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>50</v>
       </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8213,16 +8199,16 @@
         <v>47</v>
       </c>
       <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
         <v>30</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>50</v>
       </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8233,16 +8219,16 @@
         <v>37</v>
       </c>
       <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
         <v>26</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>50</v>
       </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8253,459 +8239,459 @@
         <v>31</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>14</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>50</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="C15">
         <v>24</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="C16">
         <v>26</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="C17">
         <v>23</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>7</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="C18">
         <v>19</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:S1"/>
+    <mergeCell ref="F1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
